--- a/biology/Zoologie/Buyina_halifax/Buyina_halifax.xlsx
+++ b/biology/Zoologie/Buyina_halifax/Buyina_halifax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buyina halifax est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyina halifax est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le mont Halifax et dans les monts Bluewater, dans les Cardwell et Kirrama.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le mont Halifax et dans les monts Bluewater, dans les Cardwell et Kirrama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,5 mm de long sur 2,5 mm de large et l'abdomen 3,1 mm de long sur 2,3 mm de large. La carapace du mâle paratype mesure 4,3 mm de long sur 3,1 mm de large et l'abdomen 4,0 mm de long sur 2,6 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,5 mm de long sur 2,5 mm de large et l'abdomen 3,1 mm de long sur 2,3 mm de large. La carapace du mâle paratype mesure 4,3 mm de long sur 3,1 mm de large et l'abdomen 4,0 mm de long sur 2,6 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Halifax.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1998 : A revision of the Australian metaltellines (Araneae: Amaurobioidea: Amphinectidae: Metaltellinae). Invertebrate Taxonomy, vol. 12, no 2, p. 211-243.</t>
         </is>
